--- a/Тренажеры/Глаголы/Отдельно/13. Тренажер глаг wollen.xlsx
+++ b/Тренажеры/Глаголы/Отдельно/13. Тренажер глаг wollen.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="7575" windowHeight="1125"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="7575" windowHeight="1125" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Тренажер местоимений исходный" sheetId="8" r:id="rId1"/>
+    <sheet name="претеритум" sheetId="9" r:id="rId2"/>
+    <sheet name="Начальный набор" sheetId="10" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="21">
   <si>
     <t xml:space="preserve"> -. -. -. -. -. -. -. -.</t>
   </si>
@@ -47,6 +49,36 @@
   </si>
   <si>
     <t xml:space="preserve">Мы хотим </t>
+  </si>
+  <si>
+    <t>Я хотел</t>
+  </si>
+  <si>
+    <t>Ты хотел</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Он хотел </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Она хотела </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оно хотело </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вы (много на ты) хотели </t>
+  </si>
+  <si>
+    <t>Они хотели</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вы (много на Вы) хотели </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вы (один на Вы) хотели </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мы хотели </t>
   </si>
 </sst>
 </file>
@@ -390,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -404,7 +436,7 @@
     <row r="1" spans="1:4">
       <c r="A1">
         <f t="shared" ref="A1:A40" ca="1" si="0">RAND()</f>
-        <v>0.6504369298071504</v>
+        <v>0.16523482739731321</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -419,7 +451,7 @@
     <row r="2" spans="1:4">
       <c r="A2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50394382482233713</v>
+        <v>0.1147304748063398</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -434,7 +466,7 @@
     <row r="3" spans="1:4">
       <c r="A3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84484542536733631</v>
+        <v>0.23440858757500083</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -449,7 +481,7 @@
     <row r="4" spans="1:4">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82149246192032188</v>
+        <v>0.75269501764890645</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -464,7 +496,7 @@
     <row r="5" spans="1:4">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.931952218190073E-2</v>
+        <v>0.3412095486737885</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -479,7 +511,7 @@
     <row r="6" spans="1:4">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62185011762497489</v>
+        <v>0.41205351468379225</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -494,7 +526,7 @@
     <row r="7" spans="1:4">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26555691779477564</v>
+        <v>0.43150559639188946</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -509,7 +541,7 @@
     <row r="8" spans="1:4">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71314578401495776</v>
+        <v>0.32881671216950292</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -524,7 +556,7 @@
     <row r="9" spans="1:4">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6876688100460129E-3</v>
+        <v>4.8079323241941196E-2</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -539,7 +571,7 @@
     <row r="10" spans="1:4">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9492973133258538E-2</v>
+        <v>0.10516467714723321</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -554,7 +586,7 @@
     <row r="11" spans="1:4">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0488484620171619E-2</v>
+        <v>8.9404964382445273E-2</v>
       </c>
       <c r="B11">
         <v>11</v>
@@ -569,7 +601,7 @@
     <row r="12" spans="1:4">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7918983508214279</v>
+        <v>0.64640535388925158</v>
       </c>
       <c r="B12">
         <v>12</v>
@@ -584,7 +616,7 @@
     <row r="13" spans="1:4">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8639034453297398E-2</v>
+        <v>0.89628344840225815</v>
       </c>
       <c r="B13">
         <v>13</v>
@@ -599,7 +631,7 @@
     <row r="14" spans="1:4">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66494906982183011</v>
+        <v>0.791822014180388</v>
       </c>
       <c r="B14">
         <v>14</v>
@@ -614,7 +646,7 @@
     <row r="15" spans="1:4">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83417664829339966</v>
+        <v>5.954549311475632E-2</v>
       </c>
       <c r="B15">
         <v>15</v>
@@ -629,7 +661,7 @@
     <row r="16" spans="1:4">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6351202381389216</v>
+        <v>0.46868670838640814</v>
       </c>
       <c r="B16">
         <v>16</v>
@@ -644,7 +676,7 @@
     <row r="17" spans="1:4">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7138240677413672</v>
+        <v>0.54508219114282297</v>
       </c>
       <c r="B17">
         <v>17</v>
@@ -659,7 +691,7 @@
     <row r="18" spans="1:4">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82283017449365192</v>
+        <v>0.43282729098176986</v>
       </c>
       <c r="B18">
         <v>18</v>
@@ -674,7 +706,7 @@
     <row r="19" spans="1:4">
       <c r="A19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26904450226607501</v>
+        <v>0.80664455157765258</v>
       </c>
       <c r="B19">
         <v>19</v>
@@ -689,7 +721,7 @@
     <row r="20" spans="1:4">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97044226770172148</v>
+        <v>0.82059091451063493</v>
       </c>
       <c r="B20">
         <v>20</v>
@@ -704,7 +736,7 @@
     <row r="21" spans="1:4">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66389296794451358</v>
+        <v>0.27536931669858689</v>
       </c>
       <c r="B21">
         <v>21</v>
@@ -719,7 +751,7 @@
     <row r="22" spans="1:4">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99886733663485883</v>
+        <v>0.1402814074584251</v>
       </c>
       <c r="B22">
         <v>22</v>
@@ -734,7 +766,7 @@
     <row r="23" spans="1:4">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23683718711195478</v>
+        <v>0.61318479095346934</v>
       </c>
       <c r="B23">
         <v>23</v>
@@ -749,7 +781,7 @@
     <row r="24" spans="1:4">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92665206524005006</v>
+        <v>0.54714130880215794</v>
       </c>
       <c r="B24">
         <v>24</v>
@@ -764,7 +796,7 @@
     <row r="25" spans="1:4">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16144190348969123</v>
+        <v>0.83415934459675078</v>
       </c>
       <c r="B25">
         <v>25</v>
@@ -779,7 +811,7 @@
     <row r="26" spans="1:4">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45640138429497679</v>
+        <v>0.17816689250371986</v>
       </c>
       <c r="B26">
         <v>26</v>
@@ -794,7 +826,7 @@
     <row r="27" spans="1:4">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0823420558869543E-2</v>
+        <v>0.53969545042158451</v>
       </c>
       <c r="B27">
         <v>27</v>
@@ -809,7 +841,7 @@
     <row r="28" spans="1:4">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6727085023588621E-2</v>
+        <v>0.27981842454667127</v>
       </c>
       <c r="B28">
         <v>28</v>
@@ -824,7 +856,7 @@
     <row r="29" spans="1:4">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85507739736688215</v>
+        <v>0.15212069549245166</v>
       </c>
       <c r="B29">
         <v>29</v>
@@ -839,7 +871,7 @@
     <row r="30" spans="1:4">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29513082592118556</v>
+        <v>0.68101451568774096</v>
       </c>
       <c r="B30">
         <v>30</v>
@@ -854,7 +886,7 @@
     <row r="31" spans="1:4">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49683531384404311</v>
+        <v>0.95996549647690133</v>
       </c>
       <c r="B31">
         <v>31</v>
@@ -869,7 +901,7 @@
     <row r="32" spans="1:4">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95468356688236189</v>
+        <v>0.63965388148032698</v>
       </c>
       <c r="B32">
         <v>32</v>
@@ -884,7 +916,7 @@
     <row r="33" spans="1:4">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49124819696952393</v>
+        <v>0.25711056795689502</v>
       </c>
       <c r="B33">
         <v>33</v>
@@ -899,7 +931,7 @@
     <row r="34" spans="1:4">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66805170967869643</v>
+        <v>2.3105452585762798E-2</v>
       </c>
       <c r="B34">
         <v>34</v>
@@ -914,7 +946,7 @@
     <row r="35" spans="1:4">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40947742485395988</v>
+        <v>0.5403914272747512</v>
       </c>
       <c r="B35">
         <v>35</v>
@@ -929,7 +961,7 @@
     <row r="36" spans="1:4">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8277573687440718</v>
+        <v>0.23445098690510568</v>
       </c>
       <c r="B36">
         <v>36</v>
@@ -944,7 +976,7 @@
     <row r="37" spans="1:4">
       <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57574743288178798</v>
+        <v>0.23361070876799062</v>
       </c>
       <c r="B37">
         <v>37</v>
@@ -959,7 +991,7 @@
     <row r="38" spans="1:4">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95358954145346786</v>
+        <v>0.26465302558151138</v>
       </c>
       <c r="B38">
         <v>38</v>
@@ -974,7 +1006,7 @@
     <row r="39" spans="1:4">
       <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37607135699599947</v>
+        <v>0.57014863895760048</v>
       </c>
       <c r="B39">
         <v>39</v>
@@ -989,7 +1021,7 @@
     <row r="40" spans="1:4">
       <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20487612756215157</v>
+        <v>0.53804726312977702</v>
       </c>
       <c r="B40">
         <v>40</v>
@@ -1005,4 +1037,726 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21"/>
+  <cols>
+    <col min="1" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="65.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1">
+        <f ca="1">RAND()</f>
+        <v>0.53094684399151015</v>
+      </c>
+      <c r="B1">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <f ca="1">RAND()</f>
+        <v>5.1020050626121805E-2</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <f ca="1">RAND()</f>
+        <v>0.36245160851808866</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <f ca="1">RAND()</f>
+        <v>0.2859534294214745</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <f ca="1">RAND()</f>
+        <v>0.45206189869199798</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <f ca="1">RAND()</f>
+        <v>0.31809693740845013</v>
+      </c>
+      <c r="B6">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <f ca="1">RAND()</f>
+        <v>0.44484609235650763</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <f ca="1">RAND()</f>
+        <v>0.45386316212173328</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <f ca="1">RAND()</f>
+        <v>0.12177290341137215</v>
+      </c>
+      <c r="B9">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <f ca="1">RAND()</f>
+        <v>0.48025448733170517</v>
+      </c>
+      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <f ca="1">RAND()</f>
+        <v>0.97170433673428303</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <f ca="1">RAND()</f>
+        <v>0.42427811291217665</v>
+      </c>
+      <c r="B12">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <f ca="1">RAND()</f>
+        <v>0.29193642254869445</v>
+      </c>
+      <c r="B13">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <f ca="1">RAND()</f>
+        <v>0.91862862012530422</v>
+      </c>
+      <c r="B14">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <f ca="1">RAND()</f>
+        <v>0.8947801009312164</v>
+      </c>
+      <c r="B15">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <f ca="1">RAND()</f>
+        <v>0.20313777108654851</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <f ca="1">RAND()</f>
+        <v>0.72764861797269131</v>
+      </c>
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <f ca="1">RAND()</f>
+        <v>0.94538777390303341</v>
+      </c>
+      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <f ca="1">RAND()</f>
+        <v>0.88073126862959095</v>
+      </c>
+      <c r="B19">
+        <v>35</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <f ca="1">RAND()</f>
+        <v>0.60062105404517618</v>
+      </c>
+      <c r="B20">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <f ca="1">RAND()</f>
+        <v>0.55075471954012745</v>
+      </c>
+      <c r="B21">
+        <v>24</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <f ca="1">RAND()</f>
+        <v>0.34570463455912881</v>
+      </c>
+      <c r="B22">
+        <v>33</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <f ca="1">RAND()</f>
+        <v>0.84096463818756995</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <f ca="1">RAND()</f>
+        <v>0.68231909580039352</v>
+      </c>
+      <c r="B24">
+        <v>15</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <f ca="1">RAND()</f>
+        <v>0.99338645362821065</v>
+      </c>
+      <c r="B25">
+        <v>12</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <f ca="1">RAND()</f>
+        <v>0.63665430898249875</v>
+      </c>
+      <c r="B26">
+        <v>38</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <f ca="1">RAND()</f>
+        <v>0.41387333526215375</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <f ca="1">RAND()</f>
+        <v>5.2811074956046866E-2</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <f ca="1">RAND()</f>
+        <v>0.84930732613172877</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <f ca="1">RAND()</f>
+        <v>8.1930274926881097E-2</v>
+      </c>
+      <c r="B30">
+        <v>18</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <f ca="1">RAND()</f>
+        <v>0.89038868734820253</v>
+      </c>
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <f ca="1">RAND()</f>
+        <v>0.65903158188071131</v>
+      </c>
+      <c r="B32">
+        <v>9</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <f ca="1">RAND()</f>
+        <v>0.98346002921147235</v>
+      </c>
+      <c r="B33">
+        <v>36</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <f ca="1">RAND()</f>
+        <v>0.61932621832955226</v>
+      </c>
+      <c r="B34">
+        <v>39</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <f ca="1">RAND()</f>
+        <v>0.1583697929315333</v>
+      </c>
+      <c r="B35">
+        <v>23</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <f ca="1">RAND()</f>
+        <v>0.97843228901414925</v>
+      </c>
+      <c r="B36">
+        <v>7</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <f ca="1">RAND()</f>
+        <v>5.4933749123592612E-2</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <f ca="1">RAND()</f>
+        <v>0.11929717615591739</v>
+      </c>
+      <c r="B38">
+        <v>34</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <f ca="1">RAND()</f>
+        <v>0.20047177912263336</v>
+      </c>
+      <c r="B39">
+        <v>26</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <f ca="1">RAND()</f>
+        <v>0.40858571342330285</v>
+      </c>
+      <c r="B40">
+        <v>31</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:C40">
+    <sortCondition ref="A1:A40"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="43.7109375" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="21">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="21">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="21">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="21">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="21">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="21">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="21">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="21">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="21">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>